--- a/jitiadmin/public/用户模板.xlsx
+++ b/jitiadmin/public/用户模板.xlsx
@@ -60,7 +60,7 @@
     <t>其他职位</t>
   </si>
   <si>
-    <t>管理角色</t>
+    <t>组织角色</t>
   </si>
   <si>
     <t>分组</t>
@@ -87,7 +87,7 @@
     <t>可选项（没有可不填）</t>
   </si>
   <si>
-    <t>可选项（股东/股东代表/无；可不填）</t>
+    <t>可选项（股东/股东代表/股东户代表/无；可不填）</t>
   </si>
   <si>
     <t>可选项（董事长/副董事长/无；可不填）</t>
@@ -99,7 +99,7 @@
     <t>可选项（任意职位/可不填）</t>
   </si>
   <si>
-    <t>可选项（管理员/用户；可不填）</t>
+    <t>必填选项（管理员/用户/外部人员；默认：用户）</t>
   </si>
   <si>
     <t>可选项（分组名；可不填）；分组要生效请先在系统：成员管理页面创建好对应的分组名称</t>
@@ -149,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -231,6 +231,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -245,9 +314,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,17 +354,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,92 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,13 +390,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,139 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,39 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -663,23 +630,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +676,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -717,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1301,10 +1301,11 @@
     <col min="6" max="6" width="23.125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="33.375" customWidth="1"/>
+    <col min="9" max="9" width="39.375" customWidth="1"/>
     <col min="10" max="10" width="20.25" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="14" max="14" width="27.375" customWidth="1"/>
+    <col min="15" max="15" width="33.9666666666667" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="17" width="14.25" customWidth="1"/>
   </cols>
@@ -1405,7 +1406,7 @@
       <c r="N2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="8" t="s">
